--- a/3gram/Result v3.xlsx
+++ b/3gram/Result v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\experiment\3gram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\DoYourJob\3gram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C93" sqref="A87:D104"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,28 +473,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.84330000000000005</v>
+        <v>0.88770000000000004</v>
       </c>
       <c r="C4" s="3">
-        <v>0.8528</v>
+        <v>0.875</v>
       </c>
       <c r="D4" s="3">
-        <v>0.84799999999999998</v>
+        <v>0.88129999999999997</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K20" si="0">(B4+B25+B46+B67+B88)/5</f>
-        <v>0.87444000000000011</v>
+        <v>0.88908000000000009</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L20" si="1">(C4+C25+C46+C67+C88)/5</f>
-        <v>0.88166000000000011</v>
+        <v>0.89296000000000009</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M20" si="2">(D4+D25+D46+D67+D88)/5</f>
-        <v>0.87785999999999986</v>
+        <v>0.89087999999999989</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -502,28 +502,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.90910000000000002</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="C5" s="3">
-        <v>0.90910000000000002</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="D5" s="3">
-        <v>0.90910000000000002</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
-        <v>0.92938000000000009</v>
+        <v>0.96444000000000007</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>0.91989999999999994</v>
+        <v>0.96444000000000007</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="2"/>
-        <v>0.92452000000000001</v>
+        <v>0.96444000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -534,25 +534,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>0.70589999999999997</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="D6" s="3">
-        <v>0.8276</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>0.88713999999999993</v>
+        <v>0.83686000000000005</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="1"/>
-        <v>0.61475999999999997</v>
+        <v>0.63822000000000001</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="2"/>
-        <v>0.7172599999999999</v>
+        <v>0.71327999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -560,28 +560,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>0.96550000000000002</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>0.98250000000000004</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>0.98686000000000007</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="1"/>
-        <v>0.97894000000000003</v>
+        <v>0.97777999999999987</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="2"/>
-        <v>0.98255999999999999</v>
+        <v>0.98851999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -589,28 +589,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.94869999999999999</v>
+        <v>0.8095</v>
       </c>
       <c r="C8" s="3">
-        <v>0.90239999999999998</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="D8" s="3">
-        <v>0.92500000000000004</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>0.9506</v>
+        <v>0.92547999999999997</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>0.80647999999999997</v>
+        <v>0.81946000000000008</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="2"/>
-        <v>0.86858000000000002</v>
+        <v>0.86872000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>0.93333999999999995</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.83334000000000008</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="2"/>
-        <v>0.89334000000000002</v>
+        <v>0.89333999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -647,28 +647,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.79690000000000005</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="C10" s="3">
-        <v>0.75</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="D10" s="3">
-        <v>0.77270000000000005</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>0.86685999999999996</v>
+        <v>0.86265999999999998</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>0.79671999999999998</v>
+        <v>0.80348000000000008</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="2"/>
-        <v>0.82933999999999997</v>
+        <v>0.82924000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,28 +676,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0.82499999999999996</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="C11" s="3">
-        <v>0.63460000000000005</v>
+        <v>0.86050000000000004</v>
       </c>
       <c r="D11" s="3">
-        <v>0.71740000000000004</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
-        <v>0.8547800000000001</v>
+        <v>0.86769999999999992</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>0.69633999999999996</v>
+        <v>0.70389999999999997</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="2"/>
-        <v>0.76691999999999994</v>
+        <v>0.77078000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,28 +705,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.88419999999999999</v>
       </c>
       <c r="C12" s="3">
-        <v>0.87909999999999999</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="D12" s="3">
-        <v>0.88400000000000001</v>
+        <v>0.8528</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>0.86651999999999985</v>
+        <v>0.88156000000000001</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>0.84244000000000008</v>
+        <v>0.84751999999999994</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="2"/>
-        <v>0.85417999999999983</v>
+        <v>0.86363999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,28 +734,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0.96089999999999998</v>
+        <v>0.96360000000000001</v>
       </c>
       <c r="C13" s="3">
-        <v>0.94240000000000002</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D13" s="3">
-        <v>0.9516</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>0.94767999999999986</v>
+        <v>0.95104000000000011</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="1"/>
-        <v>0.93527999999999989</v>
+        <v>0.93778000000000006</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>0.94144000000000005</v>
+        <v>0.94434000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -763,28 +763,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>0.92</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="C14" s="3">
-        <v>0.92</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="D14" s="3">
-        <v>0.92</v>
+        <v>0.9123</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="0"/>
-        <v>0.91628000000000009</v>
+        <v>0.94890000000000008</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>0.9154199999999999</v>
+        <v>0.91844000000000003</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>0.91324000000000005</v>
+        <v>0.93247999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -792,28 +792,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="C15" s="3">
-        <v>0.92589999999999995</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="D15" s="3">
-        <v>0.96150000000000002</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.9529399999999999</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="1"/>
-        <v>0.97648000000000013</v>
+        <v>0.89936000000000005</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="2"/>
-        <v>0.98786000000000007</v>
+        <v>0.92369999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -821,28 +821,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>0.5</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="C16" s="3">
-        <v>0.4</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="D16" s="3">
-        <v>0.44440000000000002</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="0"/>
-        <v>0.84284000000000003</v>
+        <v>0.82618000000000014</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="1"/>
-        <v>0.61668000000000001</v>
+        <v>0.64858000000000005</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="2"/>
-        <v>0.70887999999999995</v>
+        <v>0.72054000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -850,28 +850,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C17" s="3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D17" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="1"/>
-        <v>0.67999999999999994</v>
+        <v>0.57094</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="2"/>
-        <v>0.77112000000000003</v>
+        <v>0.63353999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -879,28 +879,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.96699999999999997</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="C18" s="3">
-        <v>0.97060000000000002</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="D18" s="3">
-        <v>0.96879999999999999</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>0.97317999999999993</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="1"/>
-        <v>0.97811999999999999</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="2"/>
-        <v>0.97565999999999986</v>
+        <v>0.97797999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -908,28 +908,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>0.9796999999999999</v>
+        <v>0.98048000000000002</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="1"/>
-        <v>0.96985999999999994</v>
+        <v>0.98105999999999993</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="2"/>
-        <v>0.97465999999999986</v>
+        <v>0.98073999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,28 +937,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0.92249999999999999</v>
+        <v>0.93379999999999996</v>
       </c>
       <c r="C20" s="3">
-        <v>0.90190000000000003</v>
+        <v>0.90969999999999995</v>
       </c>
       <c r="D20" s="3">
-        <v>0.91210000000000002</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
-        <v>0.92749999999999999</v>
+        <v>0.93181999999999987</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="1"/>
-        <v>0.90523999999999982</v>
+        <v>0.90972000000000008</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="2"/>
-        <v>0.91622000000000003</v>
+        <v>0.92064000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -982,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.87729999999999997</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>0.92400000000000004</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>0.9</v>
+        <v>0.87549999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>0.94740000000000002</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>0.9</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>0.92310000000000003</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1010,13 +1010,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>0.9</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="C27" s="1">
-        <v>0.64290000000000003</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>0.93179999999999996</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>0.93179999999999996</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="D29" s="1">
-        <v>0.93179999999999996</v>
+        <v>0.95650000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1055,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>0.92859999999999998</v>
+        <v>0.83950000000000002</v>
       </c>
       <c r="C31" s="1">
-        <v>0.8</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="D31" s="1">
-        <v>0.85950000000000004</v>
+        <v>0.86619999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>0.90480000000000005</v>
+        <v>0.84850000000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>0.79169999999999996</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>0.84440000000000004</v>
+        <v>0.77780000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>0.92420000000000002</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="C33" s="1">
-        <v>0.87139999999999995</v>
+        <v>0.83150000000000002</v>
       </c>
       <c r="D33" s="1">
-        <v>0.89710000000000001</v>
+        <v>0.86550000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>0.95379999999999998</v>
+        <v>0.94889999999999997</v>
       </c>
       <c r="C34" s="1">
-        <v>0.92889999999999995</v>
+        <v>0.95120000000000005</v>
       </c>
       <c r="D34" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.95009999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,10 +1122,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>0.9</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>0.85709999999999997</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="D35" s="1">
         <v>0.878</v>
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="D38" s="1">
-        <v>0.8</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1">
-        <v>0.97470000000000001</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>0.98180000000000001</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>0.97829999999999995</v>
+        <v>0.97060000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
       <c r="C40" s="1">
-        <v>0.95079999999999998</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="D40" s="1">
         <v>0.9748</v>
@@ -1206,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>0.94030000000000002</v>
+        <v>0.93230000000000002</v>
       </c>
       <c r="C41" s="1">
-        <v>0.92110000000000003</v>
+        <v>0.91190000000000004</v>
       </c>
       <c r="D41" s="1">
-        <v>0.93059999999999998</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.88970000000000005</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="C46" s="1">
-        <v>0.90300000000000002</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="D46" s="1">
-        <v>0.89629999999999999</v>
+        <v>0.91110000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,13 +1250,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="1">
-        <v>0.93330000000000002</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>0.93330000000000002</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <v>0.93330000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>0.75</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="C48" s="1">
-        <v>0.6</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="D48" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.75860000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>0.94869999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="C50" s="1">
-        <v>0.80430000000000001</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="D50" s="1">
-        <v>0.87060000000000004</v>
+        <v>0.84379999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>0.92730000000000001</v>
+        <v>0.871</v>
       </c>
       <c r="C52" s="1">
-        <v>0.78459999999999996</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="D52" s="1">
-        <v>0.85</v>
+        <v>0.83720000000000006</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.84089999999999998</v>
       </c>
       <c r="C53" s="1">
-        <v>0.78049999999999997</v>
+        <v>0.69810000000000005</v>
       </c>
       <c r="D53" s="1">
-        <v>0.85329999999999995</v>
+        <v>0.76290000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>0.86019999999999996</v>
+        <v>0.89529999999999998</v>
       </c>
       <c r="C54" s="1">
-        <v>0.86019999999999996</v>
+        <v>0.8851</v>
       </c>
       <c r="D54" s="1">
-        <v>0.86019999999999996</v>
+        <v>0.89019999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>0.96840000000000004</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="C55" s="1">
-        <v>0.95440000000000003</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="D55" s="1">
-        <v>0.96140000000000003</v>
+        <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1376,13 @@
         <v>13</v>
       </c>
       <c r="B56" s="1">
-        <v>0.89659999999999995</v>
+        <v>0.9375</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="D56" s="1">
-        <v>0.94550000000000001</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>0.95650000000000002</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="D57" s="1">
-        <v>0.9778</v>
+        <v>0.97140000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,13 +1404,13 @@
         <v>15</v>
       </c>
       <c r="B58" s="1">
-        <v>0.85709999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="C58" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D58" s="1">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>0.85709999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1">
-        <v>0.98570000000000002</v>
+        <v>0.98860000000000003</v>
       </c>
       <c r="C60" s="1">
-        <v>0.98209999999999997</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="D60" s="1">
-        <v>0.9839</v>
+        <v>0.97940000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,13 +1446,13 @@
         <v>18</v>
       </c>
       <c r="B61" s="1">
-        <v>0.98309999999999997</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>0.98309999999999997</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
-        <v>0.98309999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="B62" s="1">
-        <v>0.94340000000000002</v>
+        <v>0.9375</v>
       </c>
       <c r="C62" s="1">
-        <v>0.92369999999999997</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="D62" s="1">
-        <v>0.93340000000000001</v>
+        <v>0.92620000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.875</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="C67" s="1">
-        <v>0.8478</v>
+        <v>0.88770000000000004</v>
       </c>
       <c r="D67" s="1">
-        <v>0.86119999999999997</v>
+        <v>0.8861</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,13 +1504,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="1">
-        <v>0.85709999999999997</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>0.85709999999999997</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>0.85709999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>0.78569999999999995</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="C69" s="1">
-        <v>0.6875</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D69" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.58819999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>0.95830000000000004</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>0.65710000000000002</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="D71" s="1">
-        <v>0.77969999999999995</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="1">
-        <v>0.81359999999999999</v>
+        <v>0.84089999999999998</v>
       </c>
       <c r="C73" s="1">
-        <v>0.8276</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="D73" s="1">
-        <v>0.82050000000000001</v>
+        <v>0.72550000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>0.75</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="C74" s="1">
-        <v>0.56759999999999999</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="D74" s="1">
-        <v>0.6462</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B75" s="1">
-        <v>0.8105</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="C75" s="1">
-        <v>0.76239999999999997</v>
+        <v>0.83150000000000002</v>
       </c>
       <c r="D75" s="1">
-        <v>0.78569999999999995</v>
+        <v>0.86550000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>0.93089999999999995</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>0.93320000000000003</v>
+        <v>0.93489999999999995</v>
       </c>
       <c r="D76" s="1">
-        <v>0.93200000000000005</v>
+        <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>0.96</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="C77" s="1">
-        <v>0.8</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D77" s="1">
-        <v>0.87270000000000003</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0.98040000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,13 +1658,13 @@
         <v>15</v>
       </c>
       <c r="B79" s="1">
-        <v>0.85709999999999997</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="C79" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="D79" s="1">
-        <v>0.75</v>
+        <v>0.71430000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="D80" s="1">
-        <v>0.5</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1686,13 @@
         <v>17</v>
       </c>
       <c r="B81" s="1">
-        <v>0.96819999999999995</v>
+        <v>0.9778</v>
       </c>
       <c r="C81" s="1">
-        <v>0.97860000000000003</v>
+        <v>0.97419999999999995</v>
       </c>
       <c r="D81" s="1">
-        <v>0.97340000000000004</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1700,13 @@
         <v>18</v>
       </c>
       <c r="B82" s="1">
-        <v>0.9667</v>
+        <v>0.9718</v>
       </c>
       <c r="C82" s="1">
-        <v>0.9667</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="D82" s="1">
-        <v>0.9667</v>
+        <v>0.96499999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,13 +1714,13 @@
         <v>19</v>
       </c>
       <c r="B83" s="1">
-        <v>0.91180000000000005</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="C83" s="1">
-        <v>0.88249999999999995</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="D83" s="1">
-        <v>0.89690000000000003</v>
+        <v>0.91720000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.88690000000000002</v>
+        <v>0.88980000000000004</v>
       </c>
       <c r="C88" s="1">
-        <v>0.88070000000000004</v>
+        <v>0.9113</v>
       </c>
       <c r="D88" s="1">
-        <v>0.88380000000000003</v>
+        <v>0.90039999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="C90" s="1">
-        <v>0.4375</v>
+        <v>0.6</v>
       </c>
       <c r="D90" s="1">
-        <v>0.60870000000000002</v>
+        <v>0.69230000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,13 +1786,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="1">
-        <v>0.96879999999999999</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>0.96879999999999999</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D91" s="1">
-        <v>0.96879999999999999</v>
+        <v>0.98109999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,10 +1803,10 @@
         <v>0.96550000000000002</v>
       </c>
       <c r="C92" s="1">
-        <v>0.73680000000000001</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="D92" s="1">
-        <v>0.83579999999999999</v>
+        <v>0.86150000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,13 +1828,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>0.8679</v>
+        <v>0.871</v>
       </c>
       <c r="C94" s="1">
-        <v>0.82140000000000002</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="D94" s="1">
-        <v>0.84399999999999997</v>
+        <v>0.81820000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="1">
-        <v>0.85289999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="C95" s="1">
-        <v>0.70730000000000004</v>
+        <v>0.4783</v>
       </c>
       <c r="D95" s="1">
-        <v>0.77329999999999999</v>
+        <v>0.61970000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,13 +1856,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="1">
-        <v>0.8488</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="C96" s="1">
-        <v>0.83909999999999996</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D96" s="1">
-        <v>0.84389999999999998</v>
+        <v>0.84419999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,13 +1870,13 @@
         <v>12</v>
       </c>
       <c r="B97" s="1">
-        <v>0.9244</v>
+        <v>0.94069999999999998</v>
       </c>
       <c r="C97" s="1">
-        <v>0.91749999999999998</v>
+        <v>0.92930000000000001</v>
       </c>
       <c r="D97" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,13 +1884,13 @@
         <v>13</v>
       </c>
       <c r="B98" s="1">
-        <v>0.90480000000000005</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,13 +1912,13 @@
         <v>15</v>
       </c>
       <c r="B100" s="1">
-        <v>1</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="C100" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="D100" s="1">
-        <v>0.8</v>
+        <v>0.76919999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,13 +1926,13 @@
         <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>0.6</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D101" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="1">
-        <v>0.97030000000000005</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="C102" s="1">
-        <v>0.97750000000000004</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="D102" s="1">
-        <v>0.97389999999999999</v>
+        <v>0.97619999999999996</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,13 +1954,13 @@
         <v>18</v>
       </c>
       <c r="B103" s="1">
-        <v>0.94869999999999999</v>
+        <v>0.9839</v>
       </c>
       <c r="C103" s="1">
-        <v>0.94869999999999999</v>
+        <v>0.9839</v>
       </c>
       <c r="D103" s="1">
-        <v>0.94869999999999999</v>
+        <v>0.9839</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,13 +1968,13 @@
         <v>19</v>
       </c>
       <c r="B104" s="1">
-        <v>0.91949999999999998</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="C104" s="1">
-        <v>0.89700000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D104" s="1">
-        <v>0.90810000000000002</v>
+        <v>0.91620000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/3gram/Result v3.xlsx
+++ b/3gram/Result v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\DoYourJob\3gram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\experiment\3gram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:D104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C93" sqref="A87:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,28 +473,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.88770000000000004</v>
+        <v>0.84330000000000005</v>
       </c>
       <c r="C4" s="3">
-        <v>0.875</v>
+        <v>0.8528</v>
       </c>
       <c r="D4" s="3">
-        <v>0.88129999999999997</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K20" si="0">(B4+B25+B46+B67+B88)/5</f>
-        <v>0.88908000000000009</v>
+        <v>0.87444000000000011</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L20" si="1">(C4+C25+C46+C67+C88)/5</f>
-        <v>0.89296000000000009</v>
+        <v>0.88166000000000011</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M20" si="2">(D4+D25+D46+D67+D88)/5</f>
-        <v>0.89087999999999989</v>
+        <v>0.87785999999999986</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -502,28 +502,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.88890000000000002</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="C5" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="D5" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
-        <v>0.96444000000000007</v>
+        <v>0.92938000000000009</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>0.96444000000000007</v>
+        <v>0.91989999999999994</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="2"/>
-        <v>0.96444000000000007</v>
+        <v>0.92452000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -534,25 +534,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>0.57140000000000002</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="D6" s="3">
-        <v>0.72729999999999995</v>
+        <v>0.8276</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>0.83686000000000005</v>
+        <v>0.88713999999999993</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="1"/>
-        <v>0.63822000000000001</v>
+        <v>0.61475999999999997</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="2"/>
-        <v>0.71327999999999991</v>
+        <v>0.7172599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -560,28 +560,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.98686000000000007</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="1"/>
-        <v>0.97777999999999987</v>
+        <v>0.97894000000000003</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="2"/>
-        <v>0.98851999999999995</v>
+        <v>0.98255999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -589,28 +589,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.8095</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="C8" s="3">
-        <v>0.73909999999999998</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="D8" s="3">
-        <v>0.77270000000000005</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>0.92547999999999997</v>
+        <v>0.9506</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>0.81946000000000008</v>
+        <v>0.80647999999999997</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="2"/>
-        <v>0.86872000000000005</v>
+        <v>0.86858000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333999999999995</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>0.83334000000000008</v>
+        <v>0.9</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="2"/>
-        <v>0.89333999999999991</v>
+        <v>0.89334000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -647,28 +647,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.89090000000000003</v>
+        <v>0.79690000000000005</v>
       </c>
       <c r="C10" s="3">
-        <v>0.90739999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="D10" s="3">
-        <v>0.89910000000000001</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>0.86265999999999998</v>
+        <v>0.86685999999999996</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>0.80348000000000008</v>
+        <v>0.79671999999999998</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="2"/>
-        <v>0.82924000000000009</v>
+        <v>0.82933999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,28 +676,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0.90239999999999998</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C11" s="3">
-        <v>0.86050000000000004</v>
+        <v>0.63460000000000005</v>
       </c>
       <c r="D11" s="3">
-        <v>0.88100000000000001</v>
+        <v>0.71740000000000004</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
-        <v>0.86769999999999992</v>
+        <v>0.8547800000000001</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>0.70389999999999997</v>
+        <v>0.69633999999999996</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="2"/>
-        <v>0.77078000000000002</v>
+        <v>0.76691999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,28 +705,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0.88419999999999999</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="C12" s="3">
-        <v>0.82350000000000001</v>
+        <v>0.87909999999999999</v>
       </c>
       <c r="D12" s="3">
-        <v>0.8528</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>0.88156000000000001</v>
+        <v>0.86651999999999985</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>0.84751999999999994</v>
+        <v>0.84244000000000008</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="2"/>
-        <v>0.86363999999999996</v>
+        <v>0.85417999999999983</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,28 +734,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0.96360000000000001</v>
+        <v>0.96089999999999998</v>
       </c>
       <c r="C13" s="3">
-        <v>0.94299999999999995</v>
+        <v>0.94240000000000002</v>
       </c>
       <c r="D13" s="3">
-        <v>0.95320000000000005</v>
+        <v>0.9516</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>0.95104000000000011</v>
+        <v>0.94767999999999986</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="1"/>
-        <v>0.93778000000000006</v>
+        <v>0.93527999999999989</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>0.94434000000000007</v>
+        <v>0.94144000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -763,28 +763,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>0.89659999999999995</v>
+        <v>0.92</v>
       </c>
       <c r="C14" s="3">
-        <v>0.92859999999999998</v>
+        <v>0.92</v>
       </c>
       <c r="D14" s="3">
-        <v>0.9123</v>
+        <v>0.92</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="0"/>
-        <v>0.94890000000000008</v>
+        <v>0.91628000000000009</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>0.91844000000000003</v>
+        <v>0.9154199999999999</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>0.93247999999999998</v>
+        <v>0.91324000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -792,28 +792,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>0.76470000000000005</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0.59089999999999998</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="D15" s="3">
-        <v>0.66669999999999996</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
-        <v>0.9529399999999999</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="1"/>
-        <v>0.89936000000000005</v>
+        <v>0.97648000000000013</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="2"/>
-        <v>0.92369999999999997</v>
+        <v>0.98786000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -821,28 +821,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>0.83330000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="3">
-        <v>0.71430000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="D16" s="3">
-        <v>0.76919999999999999</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="0"/>
-        <v>0.82618000000000014</v>
+        <v>0.84284000000000003</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="1"/>
-        <v>0.64858000000000005</v>
+        <v>0.61668000000000001</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="2"/>
-        <v>0.72054000000000007</v>
+        <v>0.70887999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -850,28 +850,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D17" s="3">
-        <v>0.75</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="1"/>
-        <v>0.57094</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="2"/>
-        <v>0.63353999999999999</v>
+        <v>0.77112000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -879,28 +879,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.98599999999999999</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C18" s="3">
-        <v>0.98950000000000005</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="D18" s="3">
-        <v>0.98770000000000002</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
+        <v>0.97317999999999993</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="1"/>
-        <v>0.98119999999999996</v>
+        <v>0.97811999999999999</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="2"/>
-        <v>0.97797999999999996</v>
+        <v>0.97565999999999986</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -908,28 +908,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>0.98048000000000002</v>
+        <v>0.9796999999999999</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="1"/>
-        <v>0.98105999999999993</v>
+        <v>0.96985999999999994</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="2"/>
-        <v>0.98073999999999995</v>
+        <v>0.97465999999999986</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,28 +937,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0.93379999999999996</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="C20" s="3">
-        <v>0.90969999999999995</v>
+        <v>0.90190000000000003</v>
       </c>
       <c r="D20" s="3">
-        <v>0.92159999999999997</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
-        <v>0.93181999999999987</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="1"/>
-        <v>0.90972000000000008</v>
+        <v>0.90523999999999982</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="2"/>
-        <v>0.92064000000000001</v>
+        <v>0.91622000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -982,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.88890000000000002</v>
+        <v>0.87729999999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>0.86250000000000004</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>0.87549999999999994</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="D26" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1010,13 +1010,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>0.92310000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="C27" s="1">
-        <v>0.70589999999999997</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="D27" s="1">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="C29" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="D29" s="1">
-        <v>0.95650000000000002</v>
+        <v>0.93179999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1055,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>0.83950000000000002</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>0.89470000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="D31" s="1">
-        <v>0.86619999999999997</v>
+        <v>0.85950000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>0.84850000000000003</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="C32" s="1">
-        <v>0.71789999999999998</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="D32" s="1">
-        <v>0.77780000000000005</v>
+        <v>0.84440000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>0.90239999999999998</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="C33" s="1">
-        <v>0.83150000000000002</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="D33" s="1">
-        <v>0.86550000000000005</v>
+        <v>0.89710000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>0.94889999999999997</v>
+        <v>0.95379999999999998</v>
       </c>
       <c r="C34" s="1">
-        <v>0.95120000000000005</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="D34" s="1">
-        <v>0.95009999999999994</v>
+        <v>0.94120000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,10 +1122,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>0.94740000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="C35" s="1">
-        <v>0.81820000000000004</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D35" s="1">
         <v>0.878</v>
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>0.2</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D38" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1">
-        <v>0.96560000000000001</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>0.97570000000000001</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>0.97060000000000002</v>
+        <v>0.97829999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="1">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>0.98309999999999997</v>
+        <v>0.95079999999999998</v>
       </c>
       <c r="D40" s="1">
         <v>0.9748</v>
@@ -1206,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>0.93230000000000002</v>
+        <v>0.94030000000000002</v>
       </c>
       <c r="C41" s="1">
-        <v>0.91190000000000004</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="D41" s="1">
-        <v>0.92200000000000004</v>
+        <v>0.93059999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.89449999999999996</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="C46" s="1">
-        <v>0.92830000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D46" s="1">
-        <v>0.91110000000000002</v>
+        <v>0.89629999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,13 +1250,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="C48" s="1">
-        <v>0.64710000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D48" s="1">
-        <v>0.75860000000000005</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>0.9</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="C50" s="1">
-        <v>0.79410000000000003</v>
+        <v>0.80430000000000001</v>
       </c>
       <c r="D50" s="1">
-        <v>0.84379999999999999</v>
+        <v>0.87060000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>0.871</v>
+        <v>0.92730000000000001</v>
       </c>
       <c r="C52" s="1">
-        <v>0.80600000000000005</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="D52" s="1">
-        <v>0.83720000000000006</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>0.84089999999999998</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="C53" s="1">
-        <v>0.69810000000000005</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="D53" s="1">
-        <v>0.76290000000000002</v>
+        <v>0.85329999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>0.89529999999999998</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="C54" s="1">
-        <v>0.8851</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="D54" s="1">
-        <v>0.89019999999999999</v>
+        <v>0.86019999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>0.95330000000000004</v>
+        <v>0.96840000000000004</v>
       </c>
       <c r="C55" s="1">
-        <v>0.93049999999999999</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="D55" s="1">
-        <v>0.94169999999999998</v>
+        <v>0.96140000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1376,13 @@
         <v>13</v>
       </c>
       <c r="B56" s="1">
-        <v>0.9375</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="C56" s="1">
-        <v>0.88239999999999996</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
-        <v>0.90910000000000002</v>
+        <v>0.94550000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>0.94440000000000002</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="D57" s="1">
-        <v>0.97140000000000004</v>
+        <v>0.9778</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,13 +1404,13 @@
         <v>15</v>
       </c>
       <c r="B58" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="C58" s="1">
         <v>0.75</v>
       </c>
-      <c r="C58" s="1">
-        <v>0.5</v>
-      </c>
       <c r="D58" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <v>0.85709999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1">
-        <v>0.98860000000000003</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="C60" s="1">
-        <v>0.97030000000000005</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="D60" s="1">
-        <v>0.97940000000000005</v>
+        <v>0.9839</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,13 +1446,13 @@
         <v>18</v>
       </c>
       <c r="B61" s="1">
-        <v>1</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="C61" s="1">
-        <v>1</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>0.98309999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="B62" s="1">
-        <v>0.9375</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="C62" s="1">
-        <v>0.91520000000000001</v>
+        <v>0.92369999999999997</v>
       </c>
       <c r="D62" s="1">
-        <v>0.92620000000000002</v>
+        <v>0.93340000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.88449999999999995</v>
+        <v>0.875</v>
       </c>
       <c r="C67" s="1">
-        <v>0.88770000000000004</v>
+        <v>0.8478</v>
       </c>
       <c r="D67" s="1">
-        <v>0.8861</v>
+        <v>0.86119999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,13 +1504,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>0.85709999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>0.52629999999999999</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="C69" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6875</v>
       </c>
       <c r="D69" s="1">
-        <v>0.58819999999999995</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>0.95240000000000002</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="C71" s="1">
-        <v>0.86960000000000004</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="D71" s="1">
-        <v>0.90910000000000002</v>
+        <v>0.77969999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="1">
-        <v>0.84089999999999998</v>
+        <v>0.81359999999999999</v>
       </c>
       <c r="C73" s="1">
-        <v>0.63790000000000002</v>
+        <v>0.8276</v>
       </c>
       <c r="D73" s="1">
-        <v>0.72550000000000003</v>
+        <v>0.82050000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>0.86670000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="C74" s="1">
-        <v>0.76470000000000005</v>
+        <v>0.56759999999999999</v>
       </c>
       <c r="D74" s="1">
-        <v>0.8125</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B75" s="1">
-        <v>0.90239999999999998</v>
+        <v>0.8105</v>
       </c>
       <c r="C75" s="1">
-        <v>0.83150000000000002</v>
+        <v>0.76239999999999997</v>
       </c>
       <c r="D75" s="1">
-        <v>0.86550000000000005</v>
+        <v>0.78569999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>0.94869999999999999</v>
+        <v>0.93089999999999995</v>
       </c>
       <c r="C76" s="1">
-        <v>0.93489999999999995</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="D76" s="1">
-        <v>0.94169999999999998</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.96</v>
       </c>
       <c r="C77" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="D77" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.87270000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>0.96150000000000002</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>0.98040000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,13 +1658,13 @@
         <v>15</v>
       </c>
       <c r="B79" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="C79" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D79" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>0.57140000000000002</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>0.72729999999999995</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1686,13 @@
         <v>17</v>
       </c>
       <c r="B81" s="1">
-        <v>0.9778</v>
+        <v>0.96819999999999995</v>
       </c>
       <c r="C81" s="1">
-        <v>0.97419999999999995</v>
+        <v>0.97860000000000003</v>
       </c>
       <c r="D81" s="1">
-        <v>0.97599999999999998</v>
+        <v>0.97340000000000004</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1700,13 @@
         <v>18</v>
       </c>
       <c r="B82" s="1">
-        <v>0.9718</v>
+        <v>0.9667</v>
       </c>
       <c r="C82" s="1">
-        <v>0.95830000000000004</v>
+        <v>0.9667</v>
       </c>
       <c r="D82" s="1">
-        <v>0.96499999999999997</v>
+        <v>0.9667</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,13 +1714,13 @@
         <v>19</v>
       </c>
       <c r="B83" s="1">
-        <v>0.92989999999999995</v>
+        <v>0.91180000000000005</v>
       </c>
       <c r="C83" s="1">
-        <v>0.90480000000000005</v>
+        <v>0.88249999999999995</v>
       </c>
       <c r="D83" s="1">
-        <v>0.91720000000000002</v>
+        <v>0.89690000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.88980000000000004</v>
+        <v>0.88690000000000002</v>
       </c>
       <c r="C88" s="1">
-        <v>0.9113</v>
+        <v>0.88070000000000004</v>
       </c>
       <c r="D88" s="1">
-        <v>0.90039999999999998</v>
+        <v>0.88380000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="1">
-        <v>0.81820000000000004</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
-        <v>0.6</v>
+        <v>0.4375</v>
       </c>
       <c r="D90" s="1">
-        <v>0.69230000000000003</v>
+        <v>0.60870000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,13 +1786,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="C91" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="D91" s="1">
-        <v>0.98109999999999997</v>
+        <v>0.96879999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,10 +1803,10 @@
         <v>0.96550000000000002</v>
       </c>
       <c r="C92" s="1">
-        <v>0.77780000000000005</v>
+        <v>0.73680000000000001</v>
       </c>
       <c r="D92" s="1">
-        <v>0.86150000000000004</v>
+        <v>0.83579999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,13 +1828,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>0.871</v>
+        <v>0.8679</v>
       </c>
       <c r="C94" s="1">
-        <v>0.77139999999999997</v>
+        <v>0.82140000000000002</v>
       </c>
       <c r="D94" s="1">
-        <v>0.81820000000000004</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="1">
-        <v>0.88</v>
+        <v>0.85289999999999999</v>
       </c>
       <c r="C95" s="1">
-        <v>0.4783</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="D95" s="1">
-        <v>0.61970000000000003</v>
+        <v>0.77329999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,13 +1856,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="1">
-        <v>0.82350000000000001</v>
+        <v>0.8488</v>
       </c>
       <c r="C96" s="1">
-        <v>0.86599999999999999</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="D96" s="1">
-        <v>0.84419999999999995</v>
+        <v>0.84389999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,13 +1870,13 @@
         <v>12</v>
       </c>
       <c r="B97" s="1">
-        <v>0.94069999999999998</v>
+        <v>0.9244</v>
       </c>
       <c r="C97" s="1">
-        <v>0.92930000000000001</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="D97" s="1">
-        <v>0.93500000000000005</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,13 +1884,13 @@
         <v>13</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,13 +1912,13 @@
         <v>15</v>
       </c>
       <c r="B100" s="1">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D100" s="1">
-        <v>0.76919999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,13 +1926,13 @@
         <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C101" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D101" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="1">
-        <v>0.95699999999999996</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="C102" s="1">
-        <v>0.99629999999999996</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="D102" s="1">
-        <v>0.97619999999999996</v>
+        <v>0.97389999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,13 +1954,13 @@
         <v>18</v>
       </c>
       <c r="B103" s="1">
-        <v>0.9839</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="C103" s="1">
-        <v>0.9839</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="D103" s="1">
-        <v>0.9839</v>
+        <v>0.94869999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,13 +1968,13 @@
         <v>19</v>
       </c>
       <c r="B104" s="1">
-        <v>0.92559999999999998</v>
+        <v>0.91949999999999998</v>
       </c>
       <c r="C104" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D104" s="1">
-        <v>0.91620000000000001</v>
+        <v>0.90810000000000002</v>
       </c>
     </row>
   </sheetData>
